--- a/biology/Médecine/Lévomépromazine/Lévomépromazine.xlsx
+++ b/biology/Médecine/Lévomépromazine/Lévomépromazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lévomépromazine est un médicament neuroleptique ayant des propriétés antipsychotiques et sédatives particulièrement puissantes, ainsi qu'un effet analgésique[5], mis au point dans les années 1950[6] testé comme antidépresseur[7], contre la démence grave (dans les années 1950[8]) ou encore en anesthésiologie[9] ou encore à faible dose contre les nausées et vomissements[10], mais principalement utilisé comme antipsychotique.
+La lévomépromazine est un médicament neuroleptique ayant des propriétés antipsychotiques et sédatives particulièrement puissantes, ainsi qu'un effet analgésique, mis au point dans les années 1950 testé comme antidépresseur, contre la démence grave (dans les années 1950) ou encore en anesthésiologie ou encore à faible dose contre les nausées et vomissements, mais principalement utilisé comme antipsychotique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Classe chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un dérivé de la phénotiazine, comme d'autres molécules proches, par exemple la cyamémazine (voir phénotiazines).
 La lévomépromazine fait partie de la première génération de neuroleptiques.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">agitations psychotiques,
 agressivités psychotiques,
 épisodes dépressifs majeurs,
 états psychotiques,
-troubles sévères du comportement chez l’enfant avec agitation et agressivité[11].
+troubles sévères du comportement chez l’enfant avec agitation et agressivité.
 La lévomépromazine peut-être utile sur la composante anxieuse de la dépression dès lors que les anxiolytiques et autres antidépresseurs ont échoué.
 La posologie efficace minimale possible sera recherchée. Son absence d'accoutumance en fait un bon candidat pour les personnes possédant une tolérance élevée aux benzodiazépines.
 Prise au coucher, elle permet aussi un effet sédatif puissant et peut être une alternative aux molécules addictogènes.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le mécanisme d'action exact de la lévomépromazine ne soit pas entièrement connu, cet agent semble agir comme un antagoniste de divers récepteurs du système nerveux central (SNC), y compris les récepteurs adrénergiques, dopaminergiques, histaminergiques, cholinergique et sérotoninergiques (5-hydroxytryptamine ; récepteurs 5-HT)[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le mécanisme d'action exact de la lévomépromazine ne soit pas entièrement connu, cet agent semble agir comme un antagoniste de divers récepteurs du système nerveux central (SNC), y compris les récepteurs adrénergiques, dopaminergiques, histaminergiques, cholinergique et sérotoninergiques (5-hydroxytryptamine ; récepteurs 5-HT).
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce médicament ne doit pas être utilisé dans les cas suivants :
 risque de glaucome à angle fermé,
@@ -621,7 +641,7 @@
 antécédent d'agranulocytose,
 en association avec les médicaments dopaminergiques ou avec le sultopride,
 intolérance au gluten (pour les comprimés de 25 mg et 100 mg),
-allergie aux sulfites (pour la forme injectable)[13].</t>
+allergie aux sulfites (pour la forme injectable).</t>
         </is>
       </c>
     </row>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,13 +669,15 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament ne doit pas être associé :
 aux médicaments dopaminergiques (risque d'annulation de leurs effets); cette association peut néanmoins être nécessaire chez certains patients atteints de la Maladie de Parkinson ;
 au sultopride (uniquement disponible à l'hôpital) : risque de troubles du rythme cardiaque graves.
 Il peut interagir avec les médicaments susceptibles de provoquer des torsades de pointes et avec les médicaments contenant de la lévodopa.
-Informez par ailleurs votre médecin si vous prenez un anticholinestérasique, un digitalique, un antihypertenseur, un bêtabloquant, un médicament atropinique, un sédatif ou certains pansements gastriques[13].
+Informez par ailleurs votre médecin si vous prenez un anticholinestérasique, un digitalique, un antihypertenseur, un bêtabloquant, un médicament atropinique, un sédatif ou certains pansements gastriques.
 </t>
         </is>
       </c>
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,9 +706,11 @@
           <t>Lévomépromazine et Tourette</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un article scientifique médical publié en 2000 cite le cas d'un enfant atteint du syndrome de La Tourette spectaculairement amélioré par la lévomépromazine[14] après l'échec d'un traitement au phénobarbital et de cures thérapeutiques classiques.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un article scientifique médical publié en 2000 cite le cas d'un enfant atteint du syndrome de La Tourette spectaculairement amélioré par la lévomépromazine après l'échec d'un traitement au phénobarbital et de cures thérapeutiques classiques.
 </t>
         </is>
       </c>
@@ -697,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -715,7 +739,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La lévomépromazine est commercialisée en France depuis 1957 sous le nom de Nozinan avec plusieurs formes :
 en comprimés de 25 mg,
@@ -732,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -750,9 +776,11 @@
           <t>Effets indésirables possibles</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Les effets indésirables possibles sont[15] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les effets indésirables possibles sont :
 Somnolence, surtout en début de traitement ;
 Indifférence, réaction anxieuse, variation de l'humeur ;
 Effets atropiniques : sécheresse de la bouche, constipation, troubles de l'accommodation, rétention d'urine ;
@@ -771,7 +799,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L%C3%A9vom%C3%A9promazine</t>
+          <t>Lévomépromazine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -789,7 +817,9 @@
           <t>Syndrome malin des neuroleptiques</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome malin des neuroleptiques est une réaction très rare (0,02% et 3%) lors de l'administration d'un traitement par antipsychotiques.
 Ses symptômes sont :
